--- a/csec/database/Mathematics data.xlsx
+++ b/csec/database/Mathematics data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -19,34 +19,76 @@
     <t>id</t>
   </si>
   <si>
-    <t>Jan Mathematics2019.pdf</t>
+    <t>CSEC Mathematics June 2022 P032.pdf</t>
+  </si>
+  <si>
+    <t>1edM_6GLitrcf6Pz6eifPzxv8K5As9ibY</t>
+  </si>
+  <si>
+    <t>CSEC Mathematics January 2023 P032.pdf</t>
+  </si>
+  <si>
+    <t>115qc9I9C6HBhFnAN2Wl4CnrebM3kkFCL</t>
+  </si>
+  <si>
+    <t>CSEC Mathematics January 2023 P2.pdf</t>
+  </si>
+  <si>
+    <t>1ijxS84F_9p_JEZSsOr7QaN0qM-Qa2y36</t>
+  </si>
+  <si>
+    <t>CSEC Mathematics January 2022 P3.pdf</t>
+  </si>
+  <si>
+    <t>1lJAzZ_E9YQJhpNeEnhozR_fU8PZ_1LJw</t>
+  </si>
+  <si>
+    <t>CSEC Mathematics June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1KU1IDC2tefZKk4ancvToRiPYZRAIGVuA</t>
+  </si>
+  <si>
+    <t>CSEC Mathematics June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1dvO-3SQIvphX35GcvUnuYwXdTrLkdRC7</t>
+  </si>
+  <si>
+    <t>CSEC Mathematics January 2020 P2.pdf</t>
+  </si>
+  <si>
+    <t>1McyODGRrB9UaoRcSRAcwoAiry3zu03P1</t>
+  </si>
+  <si>
+    <t>CSEC Mathematics January 2019 P2.pdf</t>
   </si>
   <si>
     <t>1XqDzO5nAGehrSIp2ThKnPM2BMxUBIcpU</t>
   </si>
   <si>
-    <t>Jan Mathematics2020.pdf</t>
-  </si>
-  <si>
-    <t>1McyODGRrB9UaoRcSRAcwoAiry3zu03P1</t>
+    <t>CSEC Mathematics January 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>1guMJMnV2dtP5ITcQEVKZoHD7D5iOJCrm</t>
+  </si>
+  <si>
+    <t>CSEC Mathematics January 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1_BX2HGmMAjXznSCfooQ8XibnZqBbgDlT</t>
+  </si>
+  <si>
+    <t>CSEC Mathematics June 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1wXfBVvj99gFAtMSuOYrBXn060IRMpRi5</t>
   </si>
   <si>
     <t>CSEC Maths Study Guide (Revised 2016).pdf</t>
   </si>
   <si>
     <t>1vPAhN9AZqbFz9VcjL1wtQjwEblb5TtQG</t>
-  </si>
-  <si>
-    <t>June Mathematics2019.pdf</t>
-  </si>
-  <si>
-    <t>1wXfBVvj99gFAtMSuOYrBXn060IRMpRi5</t>
-  </si>
-  <si>
-    <t>Jan Mathematics2018.pdf</t>
-  </si>
-  <si>
-    <t>1guMJMnV2dtP5ITcQEVKZoHD7D5iOJCrm</t>
   </si>
   <si>
     <t>CSEC Maths P2 Sorted by Topic.pdf</t>
@@ -911,6 +953,62 @@
         <v>91</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
